--- a/Programming/Data/transactionsdp12d1.xlsx
+++ b/Programming/Data/transactionsdp12d1.xlsx
@@ -360,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -383,6 +383,1029 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>41821.30591435185</v>
+      </c>
+      <c r="B2">
+        <v>3300</v>
+      </c>
+      <c r="C2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>41821.30591435185</v>
+      </c>
+      <c r="B3">
+        <v>3300</v>
+      </c>
+      <c r="C3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>41821.32599537037</v>
+      </c>
+      <c r="B4">
+        <v>3425</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>41821.32634259259</v>
+      </c>
+      <c r="B5">
+        <v>3390</v>
+      </c>
+      <c r="C5">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>41821.33222222222</v>
+      </c>
+      <c r="B6">
+        <v>3460</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>41821.33907407407</v>
+      </c>
+      <c r="B7">
+        <v>3460</v>
+      </c>
+      <c r="C7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>41821.33907407407</v>
+      </c>
+      <c r="B8">
+        <v>3440</v>
+      </c>
+      <c r="C8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>41821.34262731481</v>
+      </c>
+      <c r="B9">
+        <v>3440</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>41821.34655092593</v>
+      </c>
+      <c r="B10">
+        <v>3440</v>
+      </c>
+      <c r="C10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>41821.35381944444</v>
+      </c>
+      <c r="B11">
+        <v>3798</v>
+      </c>
+      <c r="C11">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>41821.35381944444</v>
+      </c>
+      <c r="B12">
+        <v>3780</v>
+      </c>
+      <c r="C12">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>41821.35381944444</v>
+      </c>
+      <c r="B13">
+        <v>3425</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>41821.37780092593</v>
+      </c>
+      <c r="B14">
+        <v>3590</v>
+      </c>
+      <c r="C14">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>41821.37780092593</v>
+      </c>
+      <c r="B15">
+        <v>3590</v>
+      </c>
+      <c r="C15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>41821.37797453703</v>
+      </c>
+      <c r="B16">
+        <v>3550</v>
+      </c>
+      <c r="C16">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>41821.37797453703</v>
+      </c>
+      <c r="B17">
+        <v>3550</v>
+      </c>
+      <c r="C17">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>41821.40645833333</v>
+      </c>
+      <c r="B18">
+        <v>3800</v>
+      </c>
+      <c r="C18">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>41821.40672453704</v>
+      </c>
+      <c r="B19">
+        <v>3800</v>
+      </c>
+      <c r="C19">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>41821.40680555555</v>
+      </c>
+      <c r="B20">
+        <v>3790</v>
+      </c>
+      <c r="C20">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>41821.40627314815</v>
+      </c>
+      <c r="B21">
+        <v>3550</v>
+      </c>
+      <c r="C21">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>41821.40627314815</v>
+      </c>
+      <c r="B22">
+        <v>3548</v>
+      </c>
+      <c r="C22">
+        <v>26100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>41821.40627314815</v>
+      </c>
+      <c r="B23">
+        <v>3548</v>
+      </c>
+      <c r="C23">
+        <v>26100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>41821.40627314815</v>
+      </c>
+      <c r="B24">
+        <v>3544</v>
+      </c>
+      <c r="C24">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>41821.41543981482</v>
+      </c>
+      <c r="B25">
+        <v>3800</v>
+      </c>
+      <c r="C25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>41821.41543981482</v>
+      </c>
+      <c r="B26">
+        <v>3750</v>
+      </c>
+      <c r="C26">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>41821.41535879629</v>
+      </c>
+      <c r="B27">
+        <v>3750</v>
+      </c>
+      <c r="C27">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>41821.41543981482</v>
+      </c>
+      <c r="B28">
+        <v>3750</v>
+      </c>
+      <c r="C28">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>41821.41535879629</v>
+      </c>
+      <c r="B29">
+        <v>3750</v>
+      </c>
+      <c r="C29">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>41821.41535879629</v>
+      </c>
+      <c r="B30">
+        <v>3750</v>
+      </c>
+      <c r="C30">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>41821.41543981482</v>
+      </c>
+      <c r="B31">
+        <v>3750</v>
+      </c>
+      <c r="C31">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>41821.41535879629</v>
+      </c>
+      <c r="B32">
+        <v>3750</v>
+      </c>
+      <c r="C32">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>41821.41344907408</v>
+      </c>
+      <c r="B33">
+        <v>3700</v>
+      </c>
+      <c r="C33">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>41821.41344907408</v>
+      </c>
+      <c r="B34">
+        <v>3700</v>
+      </c>
+      <c r="C34">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>41821.4125462963</v>
+      </c>
+      <c r="B35">
+        <v>3700</v>
+      </c>
+      <c r="C35">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>41821.41344907408</v>
+      </c>
+      <c r="B36">
+        <v>3650</v>
+      </c>
+      <c r="C36">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>41821.41344907408</v>
+      </c>
+      <c r="B37">
+        <v>3544</v>
+      </c>
+      <c r="C37">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>41821.41467592592</v>
+      </c>
+      <c r="B38">
+        <v>3544</v>
+      </c>
+      <c r="C38">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>41821.42149305555</v>
+      </c>
+      <c r="B39">
+        <v>3920</v>
+      </c>
+      <c r="C39">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>41821.42149305555</v>
+      </c>
+      <c r="B40">
+        <v>3850</v>
+      </c>
+      <c r="C40">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>41821.42295138889</v>
+      </c>
+      <c r="B41">
+        <v>3850</v>
+      </c>
+      <c r="C41">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>41821.42295138889</v>
+      </c>
+      <c r="B42">
+        <v>3845</v>
+      </c>
+      <c r="C42">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>41821.42221064815</v>
+      </c>
+      <c r="B43">
+        <v>3845</v>
+      </c>
+      <c r="C43">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>41821.42295138889</v>
+      </c>
+      <c r="B44">
+        <v>3824</v>
+      </c>
+      <c r="C44">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>41821.41959490741</v>
+      </c>
+      <c r="B45">
+        <v>3824</v>
+      </c>
+      <c r="C45">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>41821.42200231482</v>
+      </c>
+      <c r="B46">
+        <v>3750</v>
+      </c>
+      <c r="C46">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>41821.42200231482</v>
+      </c>
+      <c r="B47">
+        <v>3750</v>
+      </c>
+      <c r="C47">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>41821.42200231482</v>
+      </c>
+      <c r="B48">
+        <v>3700</v>
+      </c>
+      <c r="C48">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>41821.41959490741</v>
+      </c>
+      <c r="B49">
+        <v>3700</v>
+      </c>
+      <c r="C49">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>41821.42391203704</v>
+      </c>
+      <c r="B50">
+        <v>4000</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>41821.42708333334</v>
+      </c>
+      <c r="B51">
+        <v>3850</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>41821.42730324074</v>
+      </c>
+      <c r="B52">
+        <v>3850</v>
+      </c>
+      <c r="C52">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>41821.42730324074</v>
+      </c>
+      <c r="B53">
+        <v>3845</v>
+      </c>
+      <c r="C53">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>41821.42814814814</v>
+      </c>
+      <c r="B54">
+        <v>3845</v>
+      </c>
+      <c r="C54">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>41821.42730324074</v>
+      </c>
+      <c r="B55">
+        <v>3750</v>
+      </c>
+      <c r="C55">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>41821.42814814814</v>
+      </c>
+      <c r="B56">
+        <v>3750</v>
+      </c>
+      <c r="C56">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>41821.42454861111</v>
+      </c>
+      <c r="B57">
+        <v>3750</v>
+      </c>
+      <c r="C57">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>41821.42804398148</v>
+      </c>
+      <c r="B58">
+        <v>3750</v>
+      </c>
+      <c r="C58">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>41821.41959490741</v>
+      </c>
+      <c r="B59">
+        <v>3750</v>
+      </c>
+      <c r="C59">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>41821.42814814814</v>
+      </c>
+      <c r="B60">
+        <v>3750</v>
+      </c>
+      <c r="C60">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>41821.42804398148</v>
+      </c>
+      <c r="B61">
+        <v>3750</v>
+      </c>
+      <c r="C61">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>41821.4369212963</v>
+      </c>
+      <c r="B62">
+        <v>4000</v>
+      </c>
+      <c r="C62">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>41821.43681712963</v>
+      </c>
+      <c r="B63">
+        <v>3950</v>
+      </c>
+      <c r="C63">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>41821.43681712963</v>
+      </c>
+      <c r="B64">
+        <v>3940</v>
+      </c>
+      <c r="C64">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>41821.43681712963</v>
+      </c>
+      <c r="B65">
+        <v>3850</v>
+      </c>
+      <c r="C65">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>41821.43706018518</v>
+      </c>
+      <c r="B66">
+        <v>3850</v>
+      </c>
+      <c r="C66">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>41821.43681712963</v>
+      </c>
+      <c r="B67">
+        <v>3750</v>
+      </c>
+      <c r="C67">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>41821.43706018518</v>
+      </c>
+      <c r="B68">
+        <v>3750</v>
+      </c>
+      <c r="C68">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>41821.43655092592</v>
+      </c>
+      <c r="B69">
+        <v>3750</v>
+      </c>
+      <c r="C69">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>41821.4337037037</v>
+      </c>
+      <c r="B70">
+        <v>3750</v>
+      </c>
+      <c r="C70">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>41821.43581018518</v>
+      </c>
+      <c r="B71">
+        <v>3750</v>
+      </c>
+      <c r="C71">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>41821.41959490741</v>
+      </c>
+      <c r="B72">
+        <v>3750</v>
+      </c>
+      <c r="C72">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>41821.43769675926</v>
+      </c>
+      <c r="B73">
+        <v>4100</v>
+      </c>
+      <c r="C73">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>41821.44116898148</v>
+      </c>
+      <c r="B74">
+        <v>4090</v>
+      </c>
+      <c r="C74">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>41821.44075231482</v>
+      </c>
+      <c r="B75">
+        <v>4000</v>
+      </c>
+      <c r="C75">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>41821.44114583333</v>
+      </c>
+      <c r="B76">
+        <v>3798</v>
+      </c>
+      <c r="C76">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>41821.45116898148</v>
+      </c>
+      <c r="B77">
+        <v>4042</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>41821.45131944444</v>
+      </c>
+      <c r="B78">
+        <v>3799</v>
+      </c>
+      <c r="C78">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>41821.45131944444</v>
+      </c>
+      <c r="B79">
+        <v>3650</v>
+      </c>
+      <c r="C79">
+        <v>18900</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>41821.45131944444</v>
+      </c>
+      <c r="B80">
+        <v>3650</v>
+      </c>
+      <c r="C80">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>41821.45538194444</v>
+      </c>
+      <c r="B81">
+        <v>4150</v>
+      </c>
+      <c r="C81">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>41821.45538194444</v>
+      </c>
+      <c r="B82">
+        <v>4150</v>
+      </c>
+      <c r="C82">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>41821.45704861111</v>
+      </c>
+      <c r="B83">
+        <v>4000</v>
+      </c>
+      <c r="C83">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>41821.45704861111</v>
+      </c>
+      <c r="B84">
+        <v>4000</v>
+      </c>
+      <c r="C84">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>41821.45704861111</v>
+      </c>
+      <c r="B85">
+        <v>4000</v>
+      </c>
+      <c r="C85">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>41821.45143518518</v>
+      </c>
+      <c r="B86">
+        <v>3950</v>
+      </c>
+      <c r="C86">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>41821.45143518518</v>
+      </c>
+      <c r="B87">
+        <v>3799</v>
+      </c>
+      <c r="C87">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>41821.46136574074</v>
+      </c>
+      <c r="B88">
+        <v>4200</v>
+      </c>
+      <c r="C88">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>41821.46262731482</v>
+      </c>
+      <c r="B89">
+        <v>3940</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>41821.46640046296</v>
+      </c>
+      <c r="B90">
+        <v>3900</v>
+      </c>
+      <c r="C90">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>41821.46694444444</v>
+      </c>
+      <c r="B91">
+        <v>3790</v>
+      </c>
+      <c r="C91">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>41821.46734953704</v>
+      </c>
+      <c r="B92">
+        <v>3700</v>
+      </c>
+      <c r="C92">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>41821.46734953704</v>
+      </c>
+      <c r="B93">
+        <v>3700</v>
+      </c>
+      <c r="C93">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>41821.46734953704</v>
+      </c>
+      <c r="B94">
+        <v>3700</v>
+      </c>
+      <c r="C94">
+        <v>7700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
